--- a/inst/extdata/src_files/xl/BASE/inputs_stics_example.xlsx
+++ b/inst/extdata/src_files/xl/BASE/inputs_stics_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USMs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="321">
   <si>
     <t xml:space="preserve">usm_name</t>
   </si>
@@ -838,6 +838,9 @@
     <t xml:space="preserve">NH3ref</t>
   </si>
   <si>
+    <t xml:space="preserve">concrr</t>
+  </si>
+  <si>
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
@@ -1594,12 +1597,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1665,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1679,7 +1682,7 @@
       <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.82"/>
@@ -1693,7 +1696,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,8 +2300,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2308,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2318,7 +2320,7 @@
       <selection pane="topLeft" activeCell="AA7" activeCellId="0" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
@@ -2337,8 +2339,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="25" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="30" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,8 +3145,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3154,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3164,7 +3165,7 @@
       <selection pane="topLeft" activeCell="BP19" activeCellId="0" sqref="BP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.57"/>
@@ -3178,11 +3179,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="15" style="32" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="32" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="39" style="32" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="63" style="32" width="10.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="65" min="63" style="32" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="32" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="67" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="253" min="74" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="256" style="0" width="5.57"/>
@@ -3244,9 +3243,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="319" min="318" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="320" min="320" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="321" min="321" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="328" min="322" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="329" min="329" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="509" min="330" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="510" min="510" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="511" min="511" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="512" min="512" style="0" width="5.57"/>
@@ -3308,9 +3305,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="575" min="574" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="576" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="577" min="577" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="584" min="578" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="585" min="585" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="765" min="586" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="766" min="766" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="767" min="767" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="768" min="768" style="0" width="5.57"/>
@@ -3372,10 +3367,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="831" min="830" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="832" min="832" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="833" min="833" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="840" min="834" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="841" min="841" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="842" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="36" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,8 +6173,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6190,7 +6183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6200,7 +6193,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -6216,8 +6209,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="12" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="27" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,8 +6437,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6455,17 +6447,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BZ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -6473,14 +6465,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.28"/>
@@ -6510,12 +6500,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="68" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="30.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="72" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="16.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="790" min="75" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="791" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="791" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8961,8 +8948,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8971,54 +8958,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
         <v>267</v>
       </c>
@@ -9034,10 +9020,10 @@
       <c r="E1" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="61" t="s">
         <v>273</v>
       </c>
       <c r="H1" s="47" t="s">
@@ -9073,10 +9059,10 @@
       <c r="R1" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="54" t="s">
         <v>286</v>
       </c>
       <c r="U1" s="70" t="s">
@@ -9094,10 +9080,10 @@
       <c r="Y1" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="Z1" s="71" t="s">
+      <c r="Z1" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="AA1" s="71" t="s">
         <v>293</v>
       </c>
       <c r="AB1" s="49" t="s">
@@ -9112,11 +9098,14 @@
       <c r="AE1" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="AF1" s="50" t="s">
+      <c r="AF1" s="49" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG1" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -9127,97 +9116,100 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="G2" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="28" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="28" t="n">
         <v>1.25</v>
       </c>
-      <c r="I2" s="28" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="28" t="n">
         <v>440</v>
       </c>
-      <c r="L2" s="28" t="n">
+      <c r="M2" s="28" t="n">
         <v>800</v>
       </c>
-      <c r="M2" s="28" t="n">
+      <c r="N2" s="28" t="n">
         <v>-0.5</v>
       </c>
-      <c r="N2" s="28" t="n">
+      <c r="O2" s="28" t="n">
         <v>-0.55</v>
       </c>
-      <c r="O2" s="28" t="n">
+      <c r="P2" s="28" t="n">
         <v>500</v>
       </c>
-      <c r="P2" s="28" t="n">
+      <c r="Q2" s="28" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q2" s="28" t="n">
+      <c r="R2" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="R2" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="15" t="n">
+      <c r="S2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="n">
         <v>-1.4</v>
       </c>
-      <c r="T2" s="28" t="n">
+      <c r="U2" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="U2" s="28" t="n">
+      <c r="V2" s="28" t="n">
         <v>0.23</v>
       </c>
-      <c r="V2" s="28" t="n">
+      <c r="W2" s="28" t="n">
         <v>0.18</v>
       </c>
-      <c r="W2" s="28" t="n">
+      <c r="X2" s="28" t="n">
         <v>0.62</v>
       </c>
-      <c r="X2" s="28" t="n">
-        <v>1</v>
-      </c>
       <c r="Y2" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" s="15" t="n">
+      <c r="Z2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" s="28" t="n">
+      <c r="AB2" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB2" s="28" t="n">
+      <c r="AC2" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="AC2" s="28" t="n">
+      <c r="AD2" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD2" s="28" t="n">
+      <c r="AE2" s="28" t="n">
         <v>0.16</v>
       </c>
-      <c r="AE2" s="28" t="n">
+      <c r="AF2" s="28" t="n">
         <v>0.004</v>
       </c>
-      <c r="AF2" s="15" t="n">
+      <c r="AG2" s="15" t="n">
         <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9226,7 +9218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9236,7 +9228,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9252,12 +9244,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>163</v>
@@ -9272,42 +9263,42 @@
         <v>166</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" s="73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2017</v>
@@ -9346,15 +9337,15 @@
         <v>405</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2017</v>
@@ -9393,15 +9384,15 @@
         <v>405</v>
       </c>
       <c r="O3" s="73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2017</v>
@@ -9440,15 +9431,15 @@
         <v>405</v>
       </c>
       <c r="O4" s="74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2017</v>
@@ -9487,15 +9478,15 @@
         <v>405</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2017</v>
@@ -9534,15 +9525,15 @@
         <v>405</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2017</v>
@@ -9581,15 +9572,15 @@
         <v>405</v>
       </c>
       <c r="O7" s="53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2017</v>
@@ -9628,15 +9619,15 @@
         <v>405</v>
       </c>
       <c r="O8" s="75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2017</v>
@@ -9675,15 +9666,15 @@
         <v>405</v>
       </c>
       <c r="O9" s="76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2017</v>
@@ -9724,7 +9715,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2017</v>
@@ -9765,7 +9756,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2017</v>
@@ -9806,7 +9797,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2017</v>
@@ -9847,7 +9838,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2017</v>
@@ -9888,7 +9879,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2017</v>
@@ -9929,7 +9920,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2017</v>
@@ -9970,7 +9961,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2017</v>
@@ -10011,7 +10002,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2017</v>
@@ -10052,7 +10043,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2017</v>
@@ -10093,7 +10084,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2017</v>
@@ -10134,7 +10125,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2017</v>
@@ -10175,7 +10166,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2017</v>
@@ -10216,7 +10207,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2017</v>
@@ -10257,7 +10248,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2017</v>
@@ -10298,7 +10289,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2017</v>
@@ -10339,7 +10330,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2017</v>
@@ -10380,7 +10371,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2017</v>
@@ -10421,7 +10412,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2017</v>
@@ -10462,7 +10453,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2017</v>
@@ -10503,7 +10494,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2017</v>
@@ -10544,7 +10535,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2017</v>
@@ -10585,7 +10576,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2017</v>
@@ -10626,7 +10617,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2017</v>
@@ -10667,7 +10658,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2017</v>
@@ -10708,7 +10699,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2017</v>
@@ -10749,7 +10740,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2017</v>
@@ -10790,7 +10781,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2017</v>
@@ -10831,7 +10822,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2017</v>
@@ -10872,7 +10863,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2017</v>
@@ -10913,7 +10904,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2017</v>
@@ -10954,7 +10945,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2017</v>
@@ -10995,7 +10986,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2017</v>
@@ -11036,7 +11027,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2017</v>
@@ -11077,7 +11068,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2017</v>
@@ -11118,7 +11109,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2017</v>
@@ -11159,7 +11150,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2017</v>
@@ -11200,7 +11191,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2017</v>
@@ -11241,7 +11232,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2017</v>
@@ -11282,7 +11273,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2017</v>
@@ -11323,7 +11314,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2017</v>
@@ -11364,7 +11355,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2017</v>
@@ -11405,7 +11396,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2017</v>
@@ -11446,7 +11437,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2017</v>
@@ -11487,7 +11478,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2017</v>
@@ -11528,7 +11519,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2017</v>
@@ -11569,7 +11560,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2017</v>
@@ -11610,7 +11601,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2017</v>
@@ -11651,7 +11642,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2017</v>
@@ -11692,7 +11683,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2017</v>
@@ -11733,7 +11724,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2017</v>
@@ -11774,7 +11765,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2017</v>
@@ -11815,7 +11806,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2017</v>
@@ -11856,7 +11847,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2017</v>
@@ -11897,7 +11888,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2017</v>
@@ -11938,7 +11929,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2017</v>
@@ -11979,7 +11970,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2017</v>
@@ -12020,7 +12011,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2017</v>
@@ -12061,7 +12052,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2017</v>
@@ -12102,7 +12093,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2017</v>
@@ -12143,7 +12134,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2017</v>
@@ -12184,7 +12175,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2017</v>
@@ -12225,7 +12216,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2017</v>
@@ -12266,7 +12257,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2017</v>
@@ -12307,7 +12298,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2017</v>
@@ -12348,7 +12339,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2017</v>
@@ -12389,7 +12380,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2017</v>
@@ -12430,7 +12421,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2017</v>
@@ -12471,7 +12462,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2017</v>
@@ -12512,7 +12503,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2017</v>
@@ -12553,7 +12544,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2017</v>
@@ -12594,7 +12585,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2017</v>
@@ -12635,7 +12626,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2017</v>
@@ -12676,7 +12667,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2017</v>
@@ -12717,7 +12708,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2017</v>
@@ -12758,7 +12749,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2017</v>
@@ -12799,7 +12790,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2017</v>
@@ -12840,7 +12831,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2017</v>
@@ -12881,7 +12872,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2017</v>
@@ -12922,7 +12913,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2017</v>
@@ -12963,7 +12954,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2017</v>
@@ -13004,7 +12995,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2017</v>
@@ -13045,7 +13036,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2017</v>
@@ -13086,7 +13077,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2017</v>
@@ -13127,7 +13118,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2017</v>
@@ -13168,7 +13159,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2017</v>
@@ -13209,7 +13200,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2017</v>
@@ -13250,7 +13241,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2017</v>
@@ -13291,7 +13282,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2017</v>
@@ -13332,7 +13323,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2017</v>
@@ -13373,7 +13364,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2017</v>
@@ -13414,7 +13405,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2017</v>
@@ -13455,7 +13446,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2017</v>
@@ -13496,7 +13487,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2017</v>
@@ -13537,7 +13528,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2017</v>
@@ -13578,7 +13569,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2017</v>
@@ -13619,7 +13610,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2017</v>
@@ -13660,7 +13651,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2017</v>
@@ -13701,7 +13692,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2017</v>
@@ -13742,7 +13733,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2017</v>
@@ -13783,7 +13774,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>2017</v>
@@ -13824,7 +13815,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2017</v>
@@ -13865,7 +13856,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2017</v>
@@ -13906,7 +13897,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>2017</v>
@@ -13947,7 +13938,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>2017</v>
@@ -13988,7 +13979,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2017</v>
@@ -14029,7 +14020,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2017</v>
@@ -14070,7 +14061,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2017</v>
@@ -14111,7 +14102,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2017</v>
@@ -14152,7 +14143,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2017</v>
@@ -14193,7 +14184,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2017</v>
@@ -14234,7 +14225,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>2017</v>
@@ -14275,7 +14266,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>2017</v>
@@ -14316,7 +14307,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2017</v>
@@ -14357,7 +14348,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2017</v>
@@ -14398,7 +14389,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2017</v>
@@ -14439,7 +14430,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2017</v>
@@ -14480,7 +14471,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2017</v>
@@ -14521,7 +14512,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2017</v>
@@ -14562,7 +14553,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>2017</v>
@@ -14603,7 +14594,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>2017</v>
@@ -14644,7 +14635,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2017</v>
@@ -14685,7 +14676,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2017</v>
@@ -14726,7 +14717,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2017</v>
@@ -14767,7 +14758,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2017</v>
@@ -14808,7 +14799,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2017</v>
@@ -14849,7 +14840,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>2017</v>
@@ -14890,7 +14881,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2017</v>
@@ -14931,7 +14922,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2017</v>
@@ -14972,7 +14963,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2017</v>
@@ -15013,7 +15004,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2017</v>
@@ -15054,7 +15045,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2017</v>
@@ -15095,7 +15086,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2017</v>
@@ -15136,7 +15127,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2017</v>
@@ -15177,7 +15168,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2017</v>
@@ -15218,7 +15209,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2017</v>
@@ -15259,7 +15250,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2017</v>
@@ -15300,7 +15291,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2017</v>
@@ -15341,7 +15332,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>2017</v>
@@ -15382,7 +15373,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2017</v>
@@ -15423,7 +15414,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2017</v>
@@ -15464,7 +15455,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2017</v>
@@ -15505,7 +15496,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2017</v>
@@ -15546,7 +15537,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2017</v>
@@ -15587,7 +15578,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2017</v>
@@ -15628,7 +15619,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2017</v>
@@ -15669,7 +15660,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>2017</v>
@@ -15710,7 +15701,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2017</v>
@@ -15751,7 +15742,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2017</v>
@@ -15792,7 +15783,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2017</v>
@@ -15833,7 +15824,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2017</v>
@@ -15874,7 +15865,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2017</v>
@@ -15915,7 +15906,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2017</v>
@@ -15956,7 +15947,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2017</v>
@@ -15997,7 +15988,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2017</v>
@@ -16038,7 +16029,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>2017</v>
@@ -16079,7 +16070,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>2017</v>
@@ -16120,7 +16111,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2017</v>
@@ -16161,7 +16152,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2017</v>
@@ -16202,7 +16193,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2017</v>
@@ -16243,7 +16234,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2017</v>
@@ -16284,7 +16275,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2017</v>
@@ -16325,7 +16316,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2017</v>
@@ -16366,7 +16357,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2017</v>
@@ -16407,7 +16398,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2017</v>
@@ -16448,7 +16439,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2017</v>
@@ -16489,7 +16480,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2017</v>
@@ -16530,7 +16521,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2017</v>
@@ -16571,7 +16562,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>2017</v>
@@ -16612,7 +16603,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2017</v>
@@ -16653,7 +16644,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2017</v>
@@ -16694,7 +16685,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2017</v>
@@ -16735,7 +16726,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2017</v>
@@ -16776,7 +16767,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2017</v>
@@ -16817,7 +16808,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>2017</v>
@@ -16858,7 +16849,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2017</v>
@@ -16899,7 +16890,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2017</v>
@@ -16940,7 +16931,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>2017</v>
@@ -16981,7 +16972,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2017</v>
@@ -17022,7 +17013,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2017</v>
@@ -17063,7 +17054,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2017</v>
@@ -17104,7 +17095,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2017</v>
@@ -17145,7 +17136,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2017</v>
@@ -17186,7 +17177,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2017</v>
@@ -17227,7 +17218,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2017</v>
@@ -17268,7 +17259,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2017</v>
@@ -17309,7 +17300,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2017</v>
@@ -17350,7 +17341,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2017</v>
@@ -17391,7 +17382,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2017</v>
@@ -17432,7 +17423,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2017</v>
@@ -17473,7 +17464,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2017</v>
@@ -17514,7 +17505,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2017</v>
@@ -17555,7 +17546,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2017</v>
@@ -17596,7 +17587,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2017</v>
@@ -17637,7 +17628,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2017</v>
@@ -17678,7 +17669,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2017</v>
@@ -17719,7 +17710,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2017</v>
@@ -17760,7 +17751,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2017</v>
@@ -17801,7 +17792,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2017</v>
@@ -17842,7 +17833,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2017</v>
@@ -17883,7 +17874,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2017</v>
@@ -17924,7 +17915,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2017</v>
@@ -17965,7 +17956,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2017</v>
@@ -18006,7 +17997,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2017</v>
@@ -18047,7 +18038,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2017</v>
@@ -18088,7 +18079,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2017</v>
@@ -18129,7 +18120,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>2017</v>
@@ -18170,7 +18161,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>2017</v>
@@ -18211,7 +18202,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2017</v>
@@ -18252,7 +18243,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>2017</v>
@@ -18293,7 +18284,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>2017</v>
@@ -18334,7 +18325,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2017</v>
@@ -18375,7 +18366,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>2017</v>
@@ -18416,7 +18407,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2017</v>
@@ -18457,7 +18448,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>2017</v>
@@ -18498,7 +18489,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>2017</v>
@@ -18539,7 +18530,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>2017</v>
@@ -18580,7 +18571,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2017</v>
@@ -18621,7 +18612,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>2017</v>
@@ -18662,7 +18653,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>2017</v>
@@ -18703,7 +18694,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>2017</v>
@@ -18744,7 +18735,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>2017</v>
@@ -18785,7 +18776,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>2017</v>
@@ -18826,7 +18817,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>2017</v>
@@ -18867,7 +18858,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>2017</v>
@@ -18908,7 +18899,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>2017</v>
@@ -18949,7 +18940,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>2017</v>
@@ -18990,7 +18981,7 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>2017</v>
@@ -19031,7 +19022,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>2017</v>
@@ -19072,7 +19063,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>2017</v>
@@ -19113,7 +19104,7 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>2017</v>
@@ -19154,7 +19145,7 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>2017</v>
@@ -19195,7 +19186,7 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>2017</v>
@@ -19236,7 +19227,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>2017</v>
@@ -19277,7 +19268,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>2017</v>
@@ -19318,7 +19309,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>2017</v>
@@ -19359,7 +19350,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2017</v>
@@ -19400,7 +19391,7 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>2017</v>
@@ -19441,7 +19432,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>2017</v>
@@ -19482,7 +19473,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>2017</v>
@@ -19523,7 +19514,7 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>2017</v>
@@ -19564,7 +19555,7 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>2017</v>
@@ -19605,7 +19596,7 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2017</v>
@@ -19646,7 +19637,7 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>2017</v>
@@ -19687,7 +19678,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>2017</v>
@@ -19728,7 +19719,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>2017</v>
@@ -19769,7 +19760,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>2017</v>
@@ -19810,7 +19801,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>2017</v>
@@ -19851,7 +19842,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>2017</v>
@@ -19892,7 +19883,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>2017</v>
@@ -19933,7 +19924,7 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2017</v>
@@ -19974,7 +19965,7 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>2017</v>
@@ -20015,7 +20006,7 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>2017</v>
@@ -20056,7 +20047,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2017</v>
@@ -20097,7 +20088,7 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>2017</v>
@@ -20138,7 +20129,7 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>2017</v>
@@ -20179,7 +20170,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>2017</v>
@@ -20220,7 +20211,7 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>2017</v>
@@ -20261,7 +20252,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>2017</v>
@@ -20302,7 +20293,7 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>2017</v>
@@ -20343,7 +20334,7 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>2017</v>
@@ -20384,7 +20375,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>2017</v>
@@ -20425,7 +20416,7 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>2017</v>
@@ -20466,7 +20457,7 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>2017</v>
@@ -20507,7 +20498,7 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>2017</v>
@@ -20548,7 +20539,7 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>2017</v>
@@ -20589,7 +20580,7 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>2017</v>
@@ -20630,7 +20621,7 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>2017</v>
@@ -20671,7 +20662,7 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>2017</v>
@@ -20712,7 +20703,7 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>2017</v>
@@ -20753,7 +20744,7 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>2017</v>
@@ -20794,7 +20785,7 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>2017</v>
@@ -20835,7 +20826,7 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2017</v>
@@ -20876,7 +20867,7 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>2017</v>
@@ -20917,7 +20908,7 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>2017</v>
@@ -20958,7 +20949,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>2017</v>
@@ -20999,7 +20990,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>2017</v>
@@ -21040,7 +21031,7 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>2017</v>
@@ -21081,7 +21072,7 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>2017</v>
@@ -21122,7 +21113,7 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>2017</v>
@@ -21163,7 +21154,7 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>2017</v>
@@ -21204,7 +21195,7 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2017</v>
@@ -21245,7 +21236,7 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>2017</v>
@@ -21286,7 +21277,7 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>2017</v>
@@ -21327,7 +21318,7 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>2017</v>
@@ -21368,7 +21359,7 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>2017</v>
@@ -21409,7 +21400,7 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>2017</v>
@@ -21450,7 +21441,7 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>2017</v>
@@ -21491,7 +21482,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>2017</v>
@@ -21532,7 +21523,7 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>2017</v>
@@ -21573,7 +21564,7 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>2017</v>
@@ -21614,7 +21605,7 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>2017</v>
@@ -21655,7 +21646,7 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2017</v>
@@ -21696,7 +21687,7 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2017</v>
@@ -21737,7 +21728,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2017</v>
@@ -21778,7 +21769,7 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2017</v>
@@ -21819,7 +21810,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2017</v>
@@ -21860,7 +21851,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2017</v>
@@ -21901,7 +21892,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2017</v>
@@ -21942,7 +21933,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2017</v>
@@ -21983,7 +21974,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2017</v>
@@ -22024,7 +22015,7 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2017</v>
@@ -22065,7 +22056,7 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2017</v>
@@ -22106,7 +22097,7 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2017</v>
@@ -22147,7 +22138,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2017</v>
@@ -22188,7 +22179,7 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2017</v>
@@ -22229,7 +22220,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2017</v>
@@ -22270,7 +22261,7 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2017</v>
@@ -22311,7 +22302,7 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2017</v>
@@ -22352,7 +22343,7 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2017</v>
@@ -22393,7 +22384,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2017</v>
@@ -22434,7 +22425,7 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>2017</v>
@@ -22475,7 +22466,7 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>2017</v>
@@ -22516,7 +22507,7 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>2017</v>
@@ -22557,7 +22548,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>2017</v>
@@ -22598,7 +22589,7 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>2017</v>
@@ -22639,7 +22630,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>2017</v>
@@ -22680,7 +22671,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>2017</v>
@@ -22721,7 +22712,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>2017</v>
@@ -22762,7 +22753,7 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>2017</v>
@@ -22803,7 +22794,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>2017</v>
@@ -22844,7 +22835,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>2017</v>
@@ -22885,7 +22876,7 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>2017</v>
@@ -22926,7 +22917,7 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>2017</v>
@@ -22967,7 +22958,7 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>2017</v>
@@ -23008,7 +22999,7 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>2017</v>
@@ -23049,7 +23040,7 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>2017</v>
@@ -23090,7 +23081,7 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>2017</v>
@@ -23131,7 +23122,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>2017</v>
@@ -23172,7 +23163,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>2017</v>
@@ -23213,7 +23204,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>2017</v>
@@ -23254,7 +23245,7 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>2017</v>
@@ -23295,7 +23286,7 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>2017</v>
@@ -23336,7 +23327,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>2017</v>
@@ -23377,7 +23368,7 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>2017</v>
@@ -23418,7 +23409,7 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>2017</v>
@@ -23459,7 +23450,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>2017</v>
@@ -23500,7 +23491,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>2017</v>
@@ -23541,7 +23532,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>2017</v>
@@ -23582,7 +23573,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>2017</v>
@@ -23623,7 +23614,7 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>2017</v>
@@ -23664,7 +23655,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>2017</v>
@@ -23705,7 +23696,7 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>2017</v>
@@ -23746,7 +23737,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>2017</v>
@@ -23787,7 +23778,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>2017</v>
@@ -23828,7 +23819,7 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>2017</v>
@@ -23869,7 +23860,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>2017</v>
@@ -23910,7 +23901,7 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>2017</v>
@@ -23951,7 +23942,7 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>2017</v>
@@ -23992,7 +23983,7 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>2017</v>
@@ -24033,7 +24024,7 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>2017</v>
@@ -24074,7 +24065,7 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>2017</v>
@@ -24115,7 +24106,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>2017</v>
@@ -24156,7 +24147,7 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>2017</v>
@@ -24197,7 +24188,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>2017</v>
@@ -24238,7 +24229,7 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>2017</v>
@@ -24279,7 +24270,7 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>2017</v>
@@ -24320,7 +24311,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>2018</v>
@@ -24361,7 +24352,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>2018</v>
@@ -24402,7 +24393,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>2018</v>
@@ -24443,7 +24434,7 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>2018</v>
@@ -24484,7 +24475,7 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>2018</v>
@@ -24525,7 +24516,7 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>2018</v>
@@ -24566,7 +24557,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>2018</v>
@@ -24607,7 +24598,7 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>2018</v>
@@ -24648,7 +24639,7 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>2018</v>
@@ -24689,7 +24680,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>2018</v>
@@ -24730,7 +24721,7 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>2018</v>
@@ -24771,7 +24762,7 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>2018</v>
@@ -24812,7 +24803,7 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>2018</v>
@@ -24853,7 +24844,7 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>2018</v>
@@ -24894,7 +24885,7 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>2018</v>
@@ -24935,7 +24926,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>2018</v>
@@ -24976,7 +24967,7 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>2018</v>
@@ -25017,7 +25008,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>2018</v>
@@ -25058,7 +25049,7 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>2018</v>
@@ -25099,7 +25090,7 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>2018</v>
@@ -25140,7 +25131,7 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>2018</v>
@@ -25181,7 +25172,7 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>2018</v>
@@ -25222,7 +25213,7 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>2018</v>
@@ -25263,7 +25254,7 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>2018</v>
@@ -25304,7 +25295,7 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>2018</v>
@@ -25345,7 +25336,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>2018</v>
@@ -25386,7 +25377,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>2018</v>
@@ -25427,7 +25418,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>2018</v>
@@ -25468,7 +25459,7 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>2018</v>
@@ -25509,7 +25500,7 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>2018</v>
@@ -25550,7 +25541,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>2018</v>
@@ -25591,7 +25582,7 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>2018</v>
@@ -25632,7 +25623,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>2018</v>
@@ -25673,7 +25664,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>2018</v>
@@ -25714,7 +25705,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>2018</v>
@@ -25755,7 +25746,7 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>2018</v>
@@ -25796,7 +25787,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>2018</v>
@@ -25837,7 +25828,7 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>2018</v>
@@ -25878,7 +25869,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>2018</v>
@@ -25919,7 +25910,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>2018</v>
@@ -25960,7 +25951,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>2018</v>
@@ -26001,7 +25992,7 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>2018</v>
@@ -26042,7 +26033,7 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>2018</v>
@@ -26083,7 +26074,7 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>2018</v>
@@ -26124,7 +26115,7 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>2018</v>
@@ -26165,7 +26156,7 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>2018</v>
@@ -26206,7 +26197,7 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>2018</v>
@@ -26247,7 +26238,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>2018</v>
@@ -26288,7 +26279,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>2018</v>
@@ -26329,7 +26320,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>2018</v>
@@ -26370,7 +26361,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>2018</v>
@@ -26411,7 +26402,7 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>2018</v>
@@ -26452,7 +26443,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>2018</v>
@@ -26493,7 +26484,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>2018</v>
@@ -26534,7 +26525,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>2018</v>
@@ -26575,7 +26566,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>2018</v>
@@ -26616,7 +26607,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>2018</v>
@@ -26657,7 +26648,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>2018</v>
@@ -26698,7 +26689,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>2018</v>
@@ -26739,7 +26730,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>2018</v>
@@ -26780,7 +26771,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>2018</v>
@@ -26821,7 +26812,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>2018</v>
@@ -26862,7 +26853,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>2018</v>
@@ -26903,7 +26894,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>2018</v>
@@ -26944,7 +26935,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>2018</v>
@@ -26985,7 +26976,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>2018</v>
@@ -27026,7 +27017,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>2018</v>
@@ -27067,7 +27058,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>2018</v>
@@ -27108,7 +27099,7 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>2018</v>
@@ -27149,7 +27140,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>2018</v>
@@ -27190,7 +27181,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>2018</v>
@@ -27231,7 +27222,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>2018</v>
@@ -27272,7 +27263,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>2018</v>
@@ -27313,7 +27304,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>2018</v>
@@ -27354,7 +27345,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>2018</v>
@@ -27395,7 +27386,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>2018</v>
@@ -27436,7 +27427,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>2018</v>
@@ -27477,7 +27468,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>2018</v>
@@ -27518,7 +27509,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>2018</v>
@@ -27559,7 +27550,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>2018</v>
@@ -27600,7 +27591,7 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>2018</v>
@@ -27641,7 +27632,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>2018</v>
@@ -27682,7 +27673,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>2018</v>
@@ -27723,7 +27714,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>2018</v>
@@ -27764,7 +27755,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>2018</v>
@@ -27805,7 +27796,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>2018</v>
@@ -27846,7 +27837,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>2018</v>
@@ -27887,7 +27878,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>2018</v>
@@ -27928,7 +27919,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>2018</v>
@@ -27969,7 +27960,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>2018</v>
@@ -28010,7 +28001,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>2018</v>
@@ -28051,7 +28042,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>2018</v>
@@ -28092,7 +28083,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>2018</v>
@@ -28133,7 +28124,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>2018</v>
@@ -28174,7 +28165,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>2018</v>
@@ -28215,7 +28206,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>2018</v>
@@ -28256,7 +28247,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>2018</v>
@@ -28297,7 +28288,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>2018</v>
@@ -28338,7 +28329,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>2018</v>
@@ -28379,7 +28370,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>2018</v>
@@ -28420,7 +28411,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>2018</v>
@@ -28461,7 +28452,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>2018</v>
@@ -28502,7 +28493,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>2018</v>
@@ -28543,7 +28534,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>2018</v>
@@ -28584,7 +28575,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>2018</v>
@@ -28625,7 +28616,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>2018</v>
@@ -28666,7 +28657,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>2018</v>
@@ -28707,7 +28698,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>2018</v>
@@ -28748,7 +28739,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>2018</v>
@@ -28789,7 +28780,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>2018</v>
@@ -28830,7 +28821,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>2018</v>
@@ -28871,7 +28862,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>2018</v>
@@ -28912,7 +28903,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>2018</v>
@@ -28953,7 +28944,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>2018</v>
@@ -28994,7 +28985,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>2018</v>
@@ -29035,7 +29026,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B482" s="0" t="n">
         <v>2018</v>
@@ -29076,7 +29067,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>2018</v>
@@ -29117,7 +29108,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>2018</v>
@@ -29158,7 +29149,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>2018</v>
@@ -29199,7 +29190,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>2018</v>
@@ -29240,7 +29231,7 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>2018</v>
@@ -29281,7 +29272,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>2018</v>
@@ -29322,7 +29313,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>2018</v>
@@ -29363,7 +29354,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>2018</v>
@@ -29404,7 +29395,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>2018</v>
@@ -29445,7 +29436,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>2018</v>
@@ -29486,7 +29477,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>2018</v>
@@ -29527,7 +29518,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>2018</v>
@@ -29568,7 +29559,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>2018</v>
@@ -29609,7 +29600,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B496" s="0" t="n">
         <v>2018</v>
@@ -29650,7 +29641,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>2018</v>
@@ -29691,7 +29682,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>2018</v>
@@ -29732,7 +29723,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>2018</v>
@@ -29773,7 +29764,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>2018</v>
@@ -29814,7 +29805,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>2018</v>
@@ -29855,7 +29846,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>2018</v>
@@ -29896,7 +29887,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>2018</v>
@@ -29937,7 +29928,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>2018</v>
@@ -29978,7 +29969,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>2018</v>
@@ -30019,7 +30010,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>2018</v>
@@ -30060,7 +30051,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>2018</v>
@@ -30101,7 +30092,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>2018</v>
@@ -30142,7 +30133,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>2018</v>
@@ -30183,7 +30174,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>2018</v>
@@ -30224,7 +30215,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B511" s="0" t="n">
         <v>2018</v>
@@ -30265,7 +30256,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B512" s="0" t="n">
         <v>2018</v>
@@ -30306,7 +30297,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>2018</v>
@@ -30347,7 +30338,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>2018</v>
@@ -30388,7 +30379,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>2018</v>
@@ -30429,7 +30420,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>2018</v>
@@ -30470,7 +30461,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>2018</v>
@@ -30511,7 +30502,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>2018</v>
@@ -30552,7 +30543,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>2018</v>
@@ -30593,7 +30584,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>2018</v>
@@ -30634,7 +30625,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>2018</v>
@@ -30675,7 +30666,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>2018</v>
@@ -30716,7 +30707,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>2018</v>
@@ -30757,7 +30748,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>2018</v>
@@ -30798,7 +30789,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>2018</v>
@@ -30839,7 +30830,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>2018</v>
@@ -30880,7 +30871,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B527" s="0" t="n">
         <v>2018</v>
@@ -30921,7 +30912,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>2018</v>
@@ -30962,7 +30953,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>2018</v>
@@ -31003,7 +30994,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>2018</v>
@@ -31044,7 +31035,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>2018</v>
@@ -31085,7 +31076,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>2018</v>
@@ -31126,7 +31117,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>2018</v>
@@ -31167,7 +31158,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>2018</v>
@@ -31208,7 +31199,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>2018</v>
@@ -31249,7 +31240,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>2018</v>
@@ -31290,7 +31281,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>2018</v>
@@ -31331,7 +31322,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>2018</v>
@@ -31372,7 +31363,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>2018</v>
@@ -31413,7 +31404,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>2018</v>
@@ -31454,7 +31445,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>2018</v>
@@ -31495,7 +31486,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>2018</v>
@@ -31536,7 +31527,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>2018</v>
@@ -31577,7 +31568,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>2018</v>
@@ -31618,7 +31609,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>2018</v>
@@ -31659,7 +31650,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>2018</v>
@@ -31700,7 +31691,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>2018</v>
@@ -31741,7 +31732,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>2018</v>
@@ -31782,7 +31773,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>2018</v>
@@ -31823,7 +31814,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2018</v>
@@ -31864,7 +31855,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2018</v>
@@ -31905,7 +31896,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2018</v>
@@ -31946,7 +31937,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>2018</v>
@@ -31987,7 +31978,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>2018</v>
@@ -32028,7 +32019,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>2018</v>
@@ -32069,7 +32060,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>2018</v>
@@ -32110,7 +32101,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>2018</v>
@@ -32151,7 +32142,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>2018</v>
@@ -32192,7 +32183,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>2018</v>
@@ -32233,7 +32224,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>2018</v>
@@ -32274,7 +32265,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>2018</v>
@@ -32315,7 +32306,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>2018</v>
@@ -32356,7 +32347,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>2018</v>
@@ -32397,7 +32388,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>2018</v>
@@ -32438,7 +32429,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>2018</v>
@@ -32479,7 +32470,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>2018</v>
@@ -32520,7 +32511,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>2018</v>
@@ -32561,7 +32552,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>2018</v>
@@ -32602,7 +32593,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>2018</v>
@@ -32643,7 +32634,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>2018</v>
@@ -32684,7 +32675,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>2018</v>
@@ -32725,7 +32716,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>2018</v>
@@ -32766,7 +32757,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>2018</v>
@@ -32807,7 +32798,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>2018</v>
@@ -32848,7 +32839,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>2018</v>
@@ -32889,7 +32880,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>2018</v>
@@ -32930,7 +32921,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>2018</v>
@@ -32971,7 +32962,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>2018</v>
@@ -33012,7 +33003,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>2018</v>
@@ -33053,7 +33044,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B580" s="0" t="n">
         <v>2018</v>
@@ -33094,7 +33085,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>2018</v>
@@ -33135,7 +33126,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>2018</v>
@@ -33176,7 +33167,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>2018</v>
@@ -33217,7 +33208,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B584" s="0" t="n">
         <v>2018</v>
@@ -33258,7 +33249,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>2018</v>
@@ -33299,7 +33290,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B586" s="0" t="n">
         <v>2018</v>
@@ -33340,7 +33331,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B587" s="0" t="n">
         <v>2018</v>
@@ -33381,7 +33372,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B588" s="0" t="n">
         <v>2018</v>
@@ -33422,7 +33413,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B589" s="0" t="n">
         <v>2018</v>
@@ -33463,7 +33454,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B590" s="0" t="n">
         <v>2018</v>
@@ -33504,7 +33495,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>2018</v>
@@ -33545,7 +33536,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>2018</v>
@@ -33586,7 +33577,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>2018</v>
@@ -33627,7 +33618,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B594" s="0" t="n">
         <v>2018</v>
@@ -33668,7 +33659,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>2018</v>
@@ -33709,7 +33700,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>2018</v>
@@ -33750,7 +33741,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>2018</v>
@@ -33791,7 +33782,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>2018</v>
@@ -33832,7 +33823,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B599" s="0" t="n">
         <v>2018</v>
@@ -33873,7 +33864,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>2018</v>
@@ -33914,7 +33905,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B601" s="0" t="n">
         <v>2018</v>
@@ -33955,7 +33946,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>2018</v>
@@ -33996,7 +33987,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>2018</v>
@@ -34037,7 +34028,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>2018</v>
@@ -34078,7 +34069,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>2018</v>
@@ -34119,7 +34110,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>2018</v>
@@ -34160,7 +34151,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>2018</v>
@@ -34201,7 +34192,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>2018</v>
@@ -34242,7 +34233,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>2018</v>
@@ -34283,7 +34274,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>2018</v>
@@ -34324,7 +34315,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>2018</v>
@@ -34365,7 +34356,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>2018</v>
@@ -34406,7 +34397,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>2018</v>
@@ -34447,7 +34438,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>2018</v>
@@ -34488,7 +34479,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>2018</v>
@@ -34529,7 +34520,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B616" s="0" t="n">
         <v>2018</v>
@@ -34570,7 +34561,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>2018</v>
@@ -34611,7 +34602,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>2018</v>
@@ -34652,7 +34643,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>2018</v>
@@ -34693,7 +34684,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>2018</v>
@@ -34734,7 +34725,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>2018</v>
@@ -34775,7 +34766,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>2018</v>
@@ -34816,7 +34807,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>2018</v>
@@ -34857,7 +34848,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>2018</v>
@@ -34898,7 +34889,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>2018</v>
@@ -34939,7 +34930,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>2018</v>
@@ -34980,7 +34971,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>2018</v>
@@ -35021,7 +35012,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>2018</v>
@@ -35062,7 +35053,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>2018</v>
@@ -35103,7 +35094,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>2018</v>
@@ -35144,7 +35135,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B631" s="0" t="n">
         <v>2018</v>
@@ -35185,7 +35176,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>2018</v>
@@ -35226,7 +35217,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>2018</v>
@@ -35267,7 +35258,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>2018</v>
@@ -35308,7 +35299,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>2018</v>
@@ -35349,7 +35340,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>2018</v>
@@ -35390,7 +35381,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>2018</v>
@@ -35431,7 +35422,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>2018</v>
@@ -35472,7 +35463,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>2018</v>
@@ -35513,7 +35504,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>2018</v>
@@ -35554,7 +35545,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>2018</v>
@@ -35595,7 +35586,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>2018</v>
@@ -35636,7 +35627,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>2018</v>
@@ -35677,7 +35668,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>2018</v>
@@ -35718,7 +35709,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>2018</v>
@@ -35759,7 +35750,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>2018</v>
@@ -35800,7 +35791,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>2018</v>
@@ -35841,7 +35832,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>2018</v>
@@ -35882,7 +35873,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>2018</v>
@@ -35923,7 +35914,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>2018</v>
@@ -35964,7 +35955,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>2018</v>
@@ -36005,7 +35996,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>2018</v>
@@ -36046,7 +36037,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>2018</v>
@@ -36087,7 +36078,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>2018</v>
@@ -36128,7 +36119,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>2018</v>
@@ -36169,7 +36160,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>2018</v>
@@ -36210,7 +36201,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>2018</v>
@@ -36251,7 +36242,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>2018</v>
@@ -36292,7 +36283,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>2018</v>
@@ -36333,7 +36324,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>2018</v>
@@ -36374,7 +36365,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B661" s="0" t="n">
         <v>2018</v>
@@ -36415,7 +36406,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>2018</v>
@@ -36456,7 +36447,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B663" s="0" t="n">
         <v>2018</v>
@@ -36497,7 +36488,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B664" s="0" t="n">
         <v>2018</v>
@@ -36538,7 +36529,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B665" s="0" t="n">
         <v>2018</v>
@@ -36579,7 +36570,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>2018</v>
@@ -36620,7 +36611,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>2018</v>
@@ -36661,7 +36652,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>2018</v>
@@ -36702,7 +36693,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>2018</v>
@@ -36743,7 +36734,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>2018</v>
@@ -36784,7 +36775,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>2018</v>
@@ -36825,7 +36816,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>2018</v>
@@ -36866,7 +36857,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>2018</v>
@@ -36907,7 +36898,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>2018</v>
@@ -36948,7 +36939,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>2018</v>
@@ -36989,7 +36980,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>2018</v>
@@ -37030,7 +37021,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>2018</v>
@@ -37071,7 +37062,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>2018</v>
@@ -37112,7 +37103,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>2018</v>
@@ -37153,7 +37144,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>2018</v>
@@ -37194,7 +37185,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>2018</v>
@@ -37235,7 +37226,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>2018</v>
@@ -37276,7 +37267,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>2018</v>
@@ -37317,7 +37308,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>2018</v>
@@ -37358,7 +37349,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>2018</v>
@@ -37399,7 +37390,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>2018</v>
@@ -37440,7 +37431,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>2018</v>
@@ -37481,7 +37472,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B688" s="0" t="n">
         <v>2018</v>
@@ -37522,7 +37513,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>2018</v>
@@ -37563,7 +37554,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>2018</v>
@@ -37604,7 +37595,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B691" s="0" t="n">
         <v>2018</v>
@@ -37645,7 +37636,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B692" s="0" t="n">
         <v>2018</v>
@@ -37686,7 +37677,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B693" s="0" t="n">
         <v>2018</v>
@@ -37727,7 +37718,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B694" s="0" t="n">
         <v>2018</v>
@@ -37768,7 +37759,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B695" s="0" t="n">
         <v>2018</v>
@@ -37809,7 +37800,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B696" s="0" t="n">
         <v>2018</v>
@@ -37850,7 +37841,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>2018</v>
@@ -37891,7 +37882,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>2018</v>
@@ -37932,7 +37923,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B699" s="0" t="n">
         <v>2018</v>
@@ -37973,7 +37964,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>2018</v>
@@ -38014,7 +38005,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>2018</v>
@@ -38055,7 +38046,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>2018</v>
@@ -38096,7 +38087,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>2018</v>
@@ -38137,7 +38128,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>2018</v>
@@ -38178,7 +38169,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>2018</v>
@@ -38219,7 +38210,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B706" s="0" t="n">
         <v>2018</v>
@@ -38260,7 +38251,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B707" s="0" t="n">
         <v>2018</v>
@@ -38301,7 +38292,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B708" s="0" t="n">
         <v>2018</v>
@@ -38342,7 +38333,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B709" s="0" t="n">
         <v>2018</v>
@@ -38383,7 +38374,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B710" s="0" t="n">
         <v>2018</v>
@@ -38424,7 +38415,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B711" s="0" t="n">
         <v>2018</v>
@@ -38465,7 +38456,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>2018</v>
@@ -38506,7 +38497,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>2018</v>
@@ -38547,7 +38538,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>2018</v>
@@ -38588,7 +38579,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B715" s="0" t="n">
         <v>2018</v>
@@ -38629,7 +38620,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B716" s="0" t="n">
         <v>2018</v>
@@ -38670,7 +38661,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>2018</v>
@@ -38711,7 +38702,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>2018</v>
@@ -38752,7 +38743,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>2018</v>
@@ -38793,7 +38784,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>2018</v>
@@ -38834,7 +38825,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B721" s="0" t="n">
         <v>2018</v>
@@ -38875,7 +38866,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B722" s="0" t="n">
         <v>2018</v>
@@ -38916,7 +38907,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B723" s="0" t="n">
         <v>2018</v>
@@ -38957,7 +38948,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B724" s="0" t="n">
         <v>2018</v>
@@ -38998,7 +38989,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B725" s="0" t="n">
         <v>2018</v>
@@ -39039,7 +39030,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>2018</v>
@@ -39080,7 +39071,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>2018</v>
@@ -39121,7 +39112,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>2018</v>
@@ -39162,7 +39153,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>2018</v>
@@ -39203,7 +39194,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>2018</v>
@@ -39244,7 +39235,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>2018</v>
@@ -39285,8 +39276,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
